--- a/classicModel/src/test/resources/twoTimeType.xlsx
+++ b/classicModel/src/test/resources/twoTimeType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace1113\dataFlower\classicModel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52A93BC-32D1-497B-8000-56E28E42EABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B75312-CBF7-49DF-9EBD-B066BCB866EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:O234"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A226" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
